--- a/Commands.xlsx
+++ b/Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arduino projekty\PClight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45B620FB-DD55-407E-8727-6A213AED9AF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F5042C-84B9-47EF-9E1B-BDC3D667208F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1FF30BA-4C48-40F1-AC16-02C325FE9D9A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="214">
   <si>
     <t>Dec</t>
   </si>
@@ -634,13 +634,46 @@
   </si>
   <si>
     <t>Funkce</t>
+  </si>
+  <si>
+    <t>output 0</t>
+  </si>
+  <si>
+    <t>output 1</t>
+  </si>
+  <si>
+    <t>output 2</t>
+  </si>
+  <si>
+    <t>output 3</t>
+  </si>
+  <si>
+    <t>output 4</t>
+  </si>
+  <si>
+    <t>output 5</t>
+  </si>
+  <si>
+    <t>output 6</t>
+  </si>
+  <si>
+    <t>output 7</t>
+  </si>
+  <si>
+    <t>output 8</t>
+  </si>
+  <si>
+    <t>output 9</t>
+  </si>
+  <si>
+    <t>output 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,6 +696,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1073,7 +1113,7 @@
   <dimension ref="B2:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,7 +1270,9 @@
       <c r="O4" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="P4" s="10"/>
+      <c r="P4" s="10" t="s">
+        <v>203</v>
+      </c>
       <c r="R4" s="5">
         <v>97</v>
       </c>
@@ -1275,7 +1317,9 @@
       <c r="O5" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="P5" s="10"/>
+      <c r="P5" s="10" t="s">
+        <v>204</v>
+      </c>
       <c r="R5" s="5">
         <v>98</v>
       </c>
@@ -1320,7 +1364,9 @@
       <c r="O6" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="P6" s="10"/>
+      <c r="P6" s="10" t="s">
+        <v>205</v>
+      </c>
       <c r="R6" s="5">
         <v>99</v>
       </c>
@@ -1365,7 +1411,9 @@
       <c r="O7" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P7" s="10"/>
+      <c r="P7" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="R7" s="5">
         <v>100</v>
       </c>
@@ -1410,7 +1458,9 @@
       <c r="O8" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="P8" s="10"/>
+      <c r="P8" s="10" t="s">
+        <v>207</v>
+      </c>
       <c r="R8" s="5">
         <v>101</v>
       </c>
@@ -1455,7 +1505,9 @@
       <c r="O9" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="P9" s="10"/>
+      <c r="P9" s="10" t="s">
+        <v>208</v>
+      </c>
       <c r="R9" s="5">
         <v>102</v>
       </c>
@@ -1500,7 +1552,9 @@
       <c r="O10" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="P10" s="10"/>
+      <c r="P10" s="10" t="s">
+        <v>209</v>
+      </c>
       <c r="R10" s="5">
         <v>103</v>
       </c>
@@ -1545,7 +1599,9 @@
       <c r="O11" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="P11" s="10"/>
+      <c r="P11" s="10" t="s">
+        <v>210</v>
+      </c>
       <c r="R11" s="5">
         <v>104</v>
       </c>
@@ -1590,7 +1646,9 @@
       <c r="O12" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="P12" s="10"/>
+      <c r="P12" s="10" t="s">
+        <v>211</v>
+      </c>
       <c r="R12" s="5">
         <v>105</v>
       </c>
@@ -1635,7 +1693,9 @@
       <c r="O13" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P13" s="10"/>
+      <c r="P13" s="10" t="s">
+        <v>212</v>
+      </c>
       <c r="R13" s="5">
         <v>106</v>
       </c>
@@ -1680,7 +1740,9 @@
       <c r="O14" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="P14" s="10"/>
+      <c r="P14" s="10" t="s">
+        <v>213</v>
+      </c>
       <c r="R14" s="5">
         <v>107</v>
       </c>
@@ -2593,6 +2655,7 @@
       <c r="U34" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
